--- a/medicine/Enfance/Akiko_Ikeda/Akiko_Ikeda.xlsx
+++ b/medicine/Enfance/Akiko_Ikeda/Akiko_Ikeda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Akiko Hikeda (池田あきこ?), née à Tokyo en 1950 est un auteur et illustratrice japonaise. Elle a publié de nombreux romans, essais et livres illustrés.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Akiko Ikeda est une ancienne étudiante de l'Université de Kyoto et du Chelsea College of Art and Design[1]. En 1984, elle a ouvert un magasin d'artisanat du cuir à Tokyo et publié le premier livre de sa série Dayan[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Akiko Ikeda est une ancienne étudiante de l'Université de Kyoto et du Chelsea College of Art and Design. En 1984, elle a ouvert un magasin d'artisanat du cuir à Tokyo et publié le premier livre de sa série Dayan.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Dayan</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son personnage principal est le chat Dayan (ダヤン?), qui vit dans un lieu imaginaire appelé Wachifield (わちふぃーるど?). De nombreux magasins et librairies distribuent les livres et les produits dérivés de Dayan.
 On trouve également un domaine Wachifields près du Mont Fuji, au lac Kawaguchi.
-Une série de courts dessins animés inspirés des aventures de Dayan a été créée en avril 2014[2].
+Une série de courts dessins animés inspirés des aventures de Dayan a été créée en avril 2014.
 </t>
         </is>
       </c>
